--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>2243100</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>2859300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>2859300</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1214000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>1214000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>936300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>936300</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>559100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>559100</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1265200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>1265200</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>677100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,41 @@
         <v>677100</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>226000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43444,6 +43444,41 @@
         <v>226000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>427000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,41 @@
         <v>427000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>533900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43514,6 +43514,41 @@
         <v>533900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1479200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>1479200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>267800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>267800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>254900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,76 @@
         <v>254900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>90500</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>777400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,76 @@
         <v>777400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>545300</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>93900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>93900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>190000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>151000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,41 @@
         <v>151000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43864,6 +43864,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>164100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,76 @@
         <v>164100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>506600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,41 @@
         <v>147000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>453400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44004,6 +44004,41 @@
         <v>453400</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>510500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2174"/>
+  <dimension ref="A1:I2175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76974,6 +76974,41 @@
         <v>510500</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>471400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2175"/>
+  <dimension ref="A1:I2176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77009,6 +77009,41 @@
         <v>471400</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>818500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2176"/>
+  <dimension ref="A1:I2177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77044,6 +77044,41 @@
         <v>818500</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>400600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2177"/>
+  <dimension ref="A1:I2178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77079,6 +77079,41 @@
         <v>400600</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>423900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2178"/>
+  <dimension ref="A1:I2179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77114,6 +77114,41 @@
         <v>423900</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2179"/>
+  <dimension ref="A1:I2180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77149,6 +77149,41 @@
         <v>220000</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>164200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2180"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77184,6 +77184,41 @@
         <v>164200</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>203700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77219,6 +77219,41 @@
         <v>203700</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>260100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2182"/>
+  <dimension ref="A1:I2183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77254,6 +77254,41 @@
         <v>260100</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77289,6 +77289,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>273000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77324,6 +77324,41 @@
         <v>273000</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>293000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2185"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77359,6 +77359,43 @@
         <v>293000</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77396,6 +77396,41 @@
         </is>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>49800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77431,6 +77431,41 @@
         <v>49800</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0038.xlsx
+++ b/data/0038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77466,6 +77466,41 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>0038</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
